--- a/TEST/esTest.xlsx
+++ b/TEST/esTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B18C05FC-7426-4CF5-9C03-3C09EE7C69E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0F44FD-0BB2-41BA-A284-2E6120DE3175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9105" yWindow="4590" windowWidth="28800" windowHeight="15345" xr2:uid="{53BF355B-1DF2-46CD-B62C-F5331138518C}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{53BF355B-1DF2-46CD-B62C-F5331138518C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
   <si>
     <t>test</t>
   </si>
@@ -124,6 +124,39 @@
   </si>
   <si>
     <t>" s"</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>pads ? len(padStr)</t>
+  </si>
+  <si>
+    <t>pads&lt;len(padStr)</t>
+  </si>
+  <si>
+    <t>pads=len(padStr)</t>
+  </si>
+  <si>
+    <t>pads&gt;len(padStr)</t>
+  </si>
+  <si>
+    <t>"xxs"</t>
+  </si>
+  <si>
+    <t>"xyz"</t>
+  </si>
+  <si>
+    <t>"xys"</t>
+  </si>
+  <si>
+    <t>pads=size-str</t>
   </si>
 </sst>
 </file>
@@ -171,16 +204,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -515,272 +549,431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90133A16-AF8B-4F08-BD64-C2629D991755}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="3">
         <v>-1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -788,5 +981,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>